--- a/biology/Botanique/Zygogynum_cristatum/Zygogynum_cristatum.xlsx
+++ b/biology/Botanique/Zygogynum_cristatum/Zygogynum_cristatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zygogynum cristatum est une espèce d'arbustes de la famille des Winteraceae, endémique à la Nouvelle-Calédonie
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbuste atteignant 6 m de haut[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbuste atteignant 6 m de haut.
 Grandes fleurs, blanc pur ou blanc verdâtre, solitaires ou sur des inflorescences partielles.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique au Centre de la Grande Terre, Mé Ori et Areha (Kouaoua)[1], sur des sols ultramafiques.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique au Centre de la Grande Terre, Mé Ori et Areha (Kouaoua), sur des sols ultramafiques.
 L'espèce n'est pas située dans des zones protégées et est menacée par l'exploitation minière et les feux de forêt.
 </t>
         </is>
